--- a/EPPlusTest/Workbooks/PivotTables/PivotTableCustomRowFieldSubtotals.xlsx
+++ b/EPPlusTest/Workbooks/PivotTables/PivotTableCustomRowFieldSubtotals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\EPPlus\EPPlusTest\Workbooks\PivotTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\EPPlus\EPPlusTest\Workbooks\PivotTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020BC41-D95B-476B-9B2E-7FA4334CD720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24390" windowHeight="10530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24396" windowHeight="10536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
   <si>
     <t>Transaction</t>
   </si>
@@ -238,12 +239,96 @@
   </si>
   <si>
     <t>San Francisco Max of Units Sold</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>Car Rack Average</t>
+  </si>
+  <si>
+    <t>Sleeping Bag Average</t>
+  </si>
+  <si>
+    <t>Tent Average</t>
+  </si>
+  <si>
+    <t>Chicago Product</t>
+  </si>
+  <si>
+    <t>Chicago Count</t>
+  </si>
+  <si>
+    <t>Nashville Product</t>
+  </si>
+  <si>
+    <t>Nashville Count</t>
+  </si>
+  <si>
+    <t>San Francisco Product</t>
+  </si>
+  <si>
+    <t>San Francisco Count</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of Total</t>
+  </si>
+  <si>
+    <t>Chicago Sum of Total</t>
+  </si>
+  <si>
+    <t>Chicago Sum of Units Sold</t>
+  </si>
+  <si>
+    <t>Nashville Sum of Total</t>
+  </si>
+  <si>
+    <t>Nashville Sum of Units Sold</t>
+  </si>
+  <si>
+    <t>San Francisco Sum of Total</t>
+  </si>
+  <si>
+    <t>San Francisco Sum of Units Sold</t>
+  </si>
+  <si>
+    <t>January Count of Total</t>
+  </si>
+  <si>
+    <t>January Count of Units Sold</t>
+  </si>
+  <si>
+    <t>January Average of Total</t>
+  </si>
+  <si>
+    <t>January Average of Units Sold</t>
+  </si>
+  <si>
+    <t>January Max of Total</t>
+  </si>
+  <si>
+    <t>February Count of Total</t>
+  </si>
+  <si>
+    <t>February Count of Units Sold</t>
+  </si>
+  <si>
+    <t>February Average of Total</t>
+  </si>
+  <si>
+    <t>February Average of Units Sold</t>
+  </si>
+  <si>
+    <t>February Max of Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -349,13 +434,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Evan M. Schallerer" refreshedDate="43497.544572800929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Evan M. Schallerer" refreshedDate="43497.544572800929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:H9" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Transaction" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20100007" maxValue="20100090"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20100007" maxValue="20100090" count="7">
+        <n v="20100076"/>
+        <n v="20100085"/>
+        <n v="20100083"/>
+        <n v="20100007"/>
+        <n v="20100070"/>
+        <n v="20100017"/>
+        <n v="20100090"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Location" numFmtId="0">
       <sharedItems count="3">
@@ -396,9 +489,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
   <r>
-    <n v="20100076"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -407,7 +500,7 @@
     <n v="415.75"/>
   </r>
   <r>
-    <n v="20100085"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -416,7 +509,7 @@
     <n v="99"/>
   </r>
   <r>
-    <n v="20100083"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
@@ -425,7 +518,7 @@
     <n v="24.99"/>
   </r>
   <r>
-    <n v="20100007"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
@@ -434,7 +527,7 @@
     <n v="831.5"/>
   </r>
   <r>
-    <n v="20100070"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
@@ -443,7 +536,7 @@
     <n v="1194"/>
   </r>
   <r>
-    <n v="20100017"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
@@ -452,7 +545,7 @@
     <n v="831.5"/>
   </r>
   <r>
-    <n v="20100090"/>
+    <x v="6"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
@@ -464,7 +557,831 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30BEDEAE-D918-4CCC-990A-EA172BED39E4}" name="PivotTable7" cacheId="1" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B77:F119" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" countASubtotal="1" avgSubtotal="1" maxSubtotal="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="countA"/>
+        <item t="avg"/>
+        <item t="max"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="-2"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="default" i="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="default" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="default" i="1">
+      <x v="2"/>
+    </i>
+    <i t="countA">
+      <x v="1048832"/>
+      <x v="1048832"/>
+      <x/>
+    </i>
+    <i t="countA" r="2" i="1">
+      <x/>
+    </i>
+    <i t="avg" r="2">
+      <x/>
+    </i>
+    <i t="avg" r="2" i="1">
+      <x/>
+    </i>
+    <i t="max" r="2">
+      <x/>
+    </i>
+    <i t="max" r="2" i="1">
+      <x/>
+    </i>
+    <i t="countA" r="2">
+      <x v="1"/>
+    </i>
+    <i t="countA" r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="2">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="max" r="2">
+      <x v="1"/>
+    </i>
+    <i t="max" r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094624F5-4F72-49A7-BCD6-A707632F0619}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B40:R73" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" productSubtotal="1" countSubtotal="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="product"/>
+        <item t="count"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" avgSubtotal="1" maxSubtotal="1" productSubtotal="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="avg"/>
+        <item t="max"/>
+        <item t="product"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="product">
+      <x/>
+    </i>
+    <i t="count">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="product">
+      <x v="1"/>
+    </i>
+    <i t="count">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="product">
+      <x v="2"/>
+    </i>
+    <i t="count">
+      <x v="2"/>
+    </i>
+    <i t="avg">
+      <x v="1048832"/>
+      <x v="1048832"/>
+      <x/>
+    </i>
+    <i t="max" r="2">
+      <x/>
+    </i>
+    <i t="product" r="2">
+      <x/>
+    </i>
+    <i t="avg" r="2">
+      <x v="1"/>
+    </i>
+    <i t="max" r="2">
+      <x v="1"/>
+    </i>
+    <i t="product" r="2">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="2">
+      <x v="2"/>
+    </i>
+    <i t="max" r="2">
+      <x v="2"/>
+    </i>
+    <i t="product" r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F2:G25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" countASubtotal="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="countA"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" maxSubtotal="1" minSubtotal="1" productSubtotal="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="max"/>
+        <item t="min"/>
+        <item t="product"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="8" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="8" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="max" r="1">
+      <x/>
+    </i>
+    <i t="min" r="1">
+      <x/>
+    </i>
+    <i t="product" r="1">
+      <x/>
+    </i>
+    <i t="countA">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="max" r="1">
+      <x v="1"/>
+    </i>
+    <i t="min" r="1">
+      <x v="1"/>
+    </i>
+    <i t="product" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="max" r="1">
+      <x v="2"/>
+    </i>
+    <i t="min" r="1">
+      <x v="2"/>
+    </i>
+    <i t="product" r="1">
+      <x v="2"/>
+    </i>
+    <i t="countA">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="1" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L2:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" maxSubtotal="1" minSubtotal="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="max"/>
+        <item t="min"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="-2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i t="max">
+      <x/>
+    </i>
+    <i t="max" i="1">
+      <x/>
+    </i>
+    <i t="min">
+      <x/>
+    </i>
+    <i t="min" i="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i t="max">
+      <x v="1"/>
+    </i>
+    <i t="max" i="1">
+      <x v="1"/>
+    </i>
+    <i t="min">
+      <x v="1"/>
+    </i>
+    <i t="min" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="1" dataOnRows="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:J30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" countASubtotal="1" avgSubtotal="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="countA"/>
+        <item t="avg"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="-2"/>
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1">
+      <x/>
+    </i>
+    <i t="avg" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="1">
+      <x v="1"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1" i="1">
+      <x/>
+    </i>
+    <i t="avg" r="1" i="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="PivotTable5" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O2:P37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -613,12 +1530,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -762,396 +1682,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F2:G25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" countASubtotal="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="countA"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" maxSubtotal="1" minSubtotal="1" productSubtotal="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="max"/>
-        <item t="min"/>
-        <item t="product"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="8" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="8" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="2"/>
-    <field x="3"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="max" r="1">
-      <x/>
-    </i>
-    <i t="min" r="1">
-      <x/>
-    </i>
-    <i t="product" r="1">
-      <x/>
-    </i>
-    <i t="countA">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="max" r="1">
-      <x v="1"/>
-    </i>
-    <i t="min" r="1">
-      <x v="1"/>
-    </i>
-    <i t="product" r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="max" r="1">
-      <x v="2"/>
-    </i>
-    <i t="min" r="1">
-      <x v="2"/>
-    </i>
-    <i t="product" r="1">
-      <x v="2"/>
-    </i>
-    <i t="countA">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L2:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" maxSubtotal="1" minSubtotal="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="max"/>
-        <item t="min"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="2"/>
-    <field x="-2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i t="max">
-      <x/>
-    </i>
-    <i t="max" i="1">
-      <x/>
-    </i>
-    <i t="min">
-      <x/>
-    </i>
-    <i t="min" i="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i t="max">
-      <x v="1"/>
-    </i>
-    <i t="max" i="1">
-      <x v="1"/>
-    </i>
-    <i t="min">
-      <x v="1"/>
-    </i>
-    <i t="min" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" dataOnRows="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:J30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" countASubtotal="1" avgSubtotal="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="countA"/>
-        <item t="avg"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="-2"/>
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1">
-      <x/>
-    </i>
-    <i t="avg" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="1"/>
-    </i>
-    <i t="avg" r="1">
-      <x v="1"/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1" i="1">
-      <x/>
-    </i>
-    <i t="avg" r="1" i="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="avg" r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1419,17 +1951,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>20100076</v>
       </c>
@@ -1475,7 +2007,7 @@
         <v>415.75</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>20100085</v>
       </c>
@@ -1498,7 +2030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>20100083</v>
       </c>
@@ -1521,7 +2053,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>20100007</v>
       </c>
@@ -1544,7 +2076,7 @@
         <v>831.5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>20100070</v>
       </c>
@@ -1567,7 +2099,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>20100017</v>
       </c>
@@ -1590,7 +2122,7 @@
         <v>831.5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>20100090</v>
       </c>
@@ -1619,41 +2151,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="38.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
     <col min="22" max="22" width="35" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +2212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +2235,7 @@
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +2262,7 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1764,7 +2297,7 @@
         <v>415.75</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1832,7 +2365,7 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1865,7 +2398,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1900,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1933,7 +2466,7 @@
         <v>220.37</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +2501,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2001,7 +2534,7 @@
         <v>415.75</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
@@ -2067,7 +2600,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
@@ -2100,7 +2633,7 @@
       </c>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2660,7 @@
         <v>831.5</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2158,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2722,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2757,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
@@ -2292,7 +2825,7 @@
         <v>343.5</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2860,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
@@ -2360,7 +2893,7 @@
         <v>415.75</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
@@ -2395,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
@@ -2428,7 +2961,7 @@
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
@@ -2455,7 +2988,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
@@ -2484,7 +3017,7 @@
         <v>415.75</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
@@ -2513,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
@@ -2540,7 +3073,7 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2569,7 +3102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O31" s="7" t="s">
         <v>18</v>
       </c>
@@ -2577,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="O32" s="4" t="s">
         <v>66</v>
       </c>
@@ -2585,7 +3118,7 @@
         <v>257.375</v>
       </c>
     </row>
-    <row r="33" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O33" s="4" t="s">
         <v>67</v>
       </c>
@@ -2593,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O34" s="4" t="s">
         <v>68</v>
       </c>
@@ -2601,7 +3134,7 @@
         <v>415.75</v>
       </c>
     </row>
-    <row r="35" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O35" s="4" t="s">
         <v>69</v>
       </c>
@@ -2609,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O36" s="4" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +3150,7 @@
         <v>1985.99</v>
       </c>
     </row>
-    <row r="37" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F37" s="4"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2639,7 +3172,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F38" s="4"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2657,6 +3190,1625 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
     </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>20100007</v>
+      </c>
+      <c r="E41">
+        <v>20100017</v>
+      </c>
+      <c r="G41">
+        <v>20100070</v>
+      </c>
+      <c r="I41">
+        <v>20100076</v>
+      </c>
+      <c r="K41">
+        <v>20100083</v>
+      </c>
+      <c r="M41">
+        <v>20100085</v>
+      </c>
+      <c r="O41">
+        <v>20100090</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6">
+        <v>2</v>
+      </c>
+      <c r="R44" s="6">
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6">
+        <v>2</v>
+      </c>
+      <c r="R45" s="6">
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
+      <c r="L46" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6">
+        <v>1</v>
+      </c>
+      <c r="R46" s="6">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6">
+        <v>1</v>
+      </c>
+      <c r="R47" s="6">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6">
+        <v>2</v>
+      </c>
+      <c r="R48" s="6">
+        <v>20779.184999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6">
+        <v>2</v>
+      </c>
+      <c r="R49" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6">
+        <v>2</v>
+      </c>
+      <c r="P51" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>4</v>
+      </c>
+      <c r="R51" s="6">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6">
+        <v>2</v>
+      </c>
+      <c r="P52" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>4</v>
+      </c>
+      <c r="R52" s="6">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6">
+        <v>6</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6">
+        <v>6</v>
+      </c>
+      <c r="R53" s="6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6">
+        <v>6</v>
+      </c>
+      <c r="R54" s="6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G55" s="6">
+        <v>6</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6">
+        <v>2</v>
+      </c>
+      <c r="P55" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>24</v>
+      </c>
+      <c r="R55" s="6">
+        <v>825522346.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6">
+        <v>1</v>
+      </c>
+      <c r="P56" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>3</v>
+      </c>
+      <c r="R56" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6">
+        <v>1</v>
+      </c>
+      <c r="R58" s="6">
+        <v>415.75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6">
+        <v>1</v>
+      </c>
+      <c r="R59" s="6">
+        <v>415.75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6">
+        <v>1</v>
+      </c>
+      <c r="N60" s="6">
+        <v>99</v>
+      </c>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6">
+        <v>1</v>
+      </c>
+      <c r="R60" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6">
+        <v>1</v>
+      </c>
+      <c r="N61" s="6">
+        <v>99</v>
+      </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6">
+        <v>1</v>
+      </c>
+      <c r="R61" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6">
+        <v>1</v>
+      </c>
+      <c r="N62" s="6">
+        <v>99</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6">
+        <v>1</v>
+      </c>
+      <c r="R62" s="6">
+        <v>41159.25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6">
+        <v>1</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1</v>
+      </c>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6">
+        <v>2</v>
+      </c>
+      <c r="R63" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6">
+        <v>2</v>
+      </c>
+      <c r="P64" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="R64" s="6">
+        <v>727.5625</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6">
+        <v>2</v>
+      </c>
+      <c r="P65" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>2</v>
+      </c>
+      <c r="R65" s="6">
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6">
+        <v>2</v>
+      </c>
+      <c r="P66" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>8</v>
+      </c>
+      <c r="R66" s="6">
+        <v>239011621680.03125</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6">
+        <v>99</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6">
+        <v>1</v>
+      </c>
+      <c r="R67" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6">
+        <v>1</v>
+      </c>
+      <c r="N68" s="6">
+        <v>99</v>
+      </c>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6">
+        <v>1</v>
+      </c>
+      <c r="R68" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6">
+        <v>1</v>
+      </c>
+      <c r="N69" s="6">
+        <v>99</v>
+      </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6">
+        <v>1</v>
+      </c>
+      <c r="R69" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6">
+        <v>6</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6">
+        <v>1</v>
+      </c>
+      <c r="L70" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="R70" s="6">
+        <v>609.495</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6">
+        <v>6</v>
+      </c>
+      <c r="H71" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6">
+        <v>1</v>
+      </c>
+      <c r="L71" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6">
+        <v>6</v>
+      </c>
+      <c r="R71" s="6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6">
+        <v>6</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6">
+        <v>1</v>
+      </c>
+      <c r="L72" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6">
+        <v>6</v>
+      </c>
+      <c r="R72" s="6">
+        <v>29838.059999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="G73" s="6">
+        <v>6</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1194</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1</v>
+      </c>
+      <c r="L73" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="M73" s="6">
+        <v>1</v>
+      </c>
+      <c r="N73" s="6">
+        <v>99</v>
+      </c>
+      <c r="O73" s="6">
+        <v>2</v>
+      </c>
+      <c r="P73" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>15</v>
+      </c>
+      <c r="R73" s="6">
+        <v>4228.24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C77" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="F82" s="6">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="F86" s="6">
+        <v>856.49</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1663</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6">
+        <v>1194</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="6">
+        <v>4</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6">
+        <v>6</v>
+      </c>
+      <c r="F94" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1663</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6">
+        <v>1194</v>
+      </c>
+      <c r="F95" s="6">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="6">
+        <v>4</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6">
+        <v>6</v>
+      </c>
+      <c r="F96" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
+        <v>415.75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6">
+        <v>99</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D104" s="6">
+        <v>99</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <v>514.75</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="6">
+        <v>4</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="6">
+        <v>4</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" s="6">
+        <v>727.5625</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
+        <v>727.5625</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2</v>
+      </c>
+      <c r="F113" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6">
+        <v>99</v>
+      </c>
+      <c r="E114" s="6">
+        <v>609.495</v>
+      </c>
+      <c r="F114" s="6">
+        <v>439.33</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F115" s="6">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6">
+        <v>99</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1194</v>
+      </c>
+      <c r="F116" s="6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>6</v>
+      </c>
+      <c r="F117" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="6">
+        <v>2910.25</v>
+      </c>
+      <c r="D118" s="6">
+        <v>99</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1218.99</v>
+      </c>
+      <c r="F118" s="6">
+        <v>4228.24</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="6">
+        <v>7</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>7</v>
+      </c>
+      <c r="F119" s="6">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EPPlusTest/Workbooks/PivotTables/PivotTableCustomRowFieldSubtotals.xlsx
+++ b/EPPlusTest/Workbooks/PivotTables/PivotTableCustomRowFieldSubtotals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\EPPlus\EPPlusTest\Workbooks\PivotTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020BC41-D95B-476B-9B2E-7FA4334CD720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA4AD8-A44C-4717-9C42-371AD172F15D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24396" windowHeight="10536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="104">
   <si>
     <t>Transaction</t>
   </si>
@@ -323,6 +323,24 @@
   </si>
   <si>
     <t>February Max of Total</t>
+  </si>
+  <si>
+    <t>Car Rack Sum</t>
+  </si>
+  <si>
+    <t>Car Rack Count</t>
+  </si>
+  <si>
+    <t>Sleeping Bag Sum</t>
+  </si>
+  <si>
+    <t>Sleeping Bag Count</t>
+  </si>
+  <si>
+    <t>Tent Sum</t>
+  </si>
+  <si>
+    <t>Tent Count</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,464 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30BEDEAE-D918-4CCC-990A-EA172BED39E4}" name="PivotTable7" cacheId="1" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D3A6A1A-4DCD-45FE-8E48-6841BF84344F}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B122:J148" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sumSubtotal="1" countASubtotal="1" maxSubtotal="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="sum"/>
+        <item t="countA"/>
+        <item t="max"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sumSubtotal="1" countASubtotal="1" minSubtotal="1" productSubtotal="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="sum"/>
+        <item t="countA"/>
+        <item t="min"/>
+        <item t="product"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="sum">
+      <x/>
+    </i>
+    <i t="countA">
+      <x/>
+    </i>
+    <i t="max">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="sum">
+      <x v="1"/>
+    </i>
+    <i t="countA">
+      <x v="1"/>
+    </i>
+    <i t="max">
+      <x v="1"/>
+    </i>
+    <i t="sum">
+      <x v="1048832"/>
+      <x/>
+    </i>
+    <i t="countA" r="1">
+      <x/>
+    </i>
+    <i t="min" r="1">
+      <x/>
+    </i>
+    <i t="product" r="1">
+      <x/>
+    </i>
+    <i t="sum" r="1">
+      <x v="1"/>
+    </i>
+    <i t="countA" r="1">
+      <x v="1"/>
+    </i>
+    <i t="min" r="1">
+      <x v="1"/>
+    </i>
+    <i t="product" r="1">
+      <x v="1"/>
+    </i>
+    <i t="sum" r="1">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1">
+      <x v="2"/>
+    </i>
+    <i t="min" r="1">
+      <x v="2"/>
+    </i>
+    <i t="product" r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="2" dataOnRows="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:J30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" countASubtotal="1" avgSubtotal="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="countA"/>
+        <item t="avg"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="-2"/>
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1">
+      <x/>
+    </i>
+    <i t="avg" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="1">
+      <x v="1"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1" i="1">
+      <x/>
+    </i>
+    <i t="avg" r="1" i="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i t="countA" r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="avg" r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="PivotTable5" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O2:P37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" avgSubtotal="1" maxSubtotal="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="avg"/>
+        <item t="max"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="35">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="avg">
+      <x/>
+    </i>
+    <i t="avg" i="1">
+      <x/>
+    </i>
+    <i t="max">
+      <x/>
+    </i>
+    <i t="max" i="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="avg">
+      <x v="1"/>
+    </i>
+    <i t="avg" i="1">
+      <x v="1"/>
+    </i>
+    <i t="max">
+      <x v="1"/>
+    </i>
+    <i t="max" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="avg">
+      <x v="2"/>
+    </i>
+    <i t="avg" i="1">
+      <x v="2"/>
+    </i>
+    <i t="max">
+      <x v="2"/>
+    </i>
+    <i t="max" i="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30BEDEAE-D918-4CCC-990A-EA172BED39E4}" name="PivotTable7" cacheId="2" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B77:F119" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -755,8 +1230,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094624F5-4F72-49A7-BCD6-A707632F0619}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{094624F5-4F72-49A7-BCD6-A707632F0619}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B40:R73" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -980,8 +1455,160 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B2:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="sum"/>
+        <item t="countA"/>
+        <item t="avg"/>
+        <item t="max"/>
+        <item t="min"/>
+        <item t="product"/>
+        <item t="count"/>
+        <item t="stdDev"/>
+        <item t="stdDevP"/>
+        <item t="var"/>
+        <item t="varP"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="8" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="8" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="sum">
+      <x/>
+    </i>
+    <i t="countA">
+      <x/>
+    </i>
+    <i t="avg">
+      <x/>
+    </i>
+    <i t="max">
+      <x/>
+    </i>
+    <i t="min">
+      <x/>
+    </i>
+    <i t="product">
+      <x/>
+    </i>
+    <i t="count">
+      <x/>
+    </i>
+    <i t="stdDev">
+      <x/>
+    </i>
+    <i t="stdDevP">
+      <x/>
+    </i>
+    <i t="var">
+      <x/>
+    </i>
+    <i t="varP">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="sum">
+      <x v="1"/>
+    </i>
+    <i t="countA">
+      <x v="1"/>
+    </i>
+    <i t="avg">
+      <x v="1"/>
+    </i>
+    <i t="max">
+      <x v="1"/>
+    </i>
+    <i t="min">
+      <x v="1"/>
+    </i>
+    <i t="product">
+      <x v="1"/>
+    </i>
+    <i t="count">
+      <x v="1"/>
+    </i>
+    <i t="stdDev">
+      <x v="1"/>
+    </i>
+    <i t="stdDevP">
+      <x v="1"/>
+    </i>
+    <i t="var">
+      <x v="1"/>
+    </i>
+    <i t="varP">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:G25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -1108,8 +1735,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="1" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="PivotTable4" cacheId="2" dataOnRows="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L2:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1227,451 +1854,6 @@
   </rowItems>
   <colItems count="1">
     <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="1" dataOnRows="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:J30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" countASubtotal="1" avgSubtotal="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="countA"/>
-        <item t="avg"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="-2"/>
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1">
-      <x/>
-    </i>
-    <i t="avg" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="1"/>
-    </i>
-    <i t="avg" r="1">
-      <x v="1"/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1" i="1">
-      <x/>
-    </i>
-    <i t="avg" r="1" i="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i t="countA" r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="avg" r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="PivotTable5" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O2:P37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" avgSubtotal="1" maxSubtotal="1">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="avg"/>
-        <item t="max"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="1"/>
-    <field x="2"/>
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="35">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i t="avg">
-      <x/>
-    </i>
-    <i t="avg" i="1">
-      <x/>
-    </i>
-    <i t="max">
-      <x/>
-    </i>
-    <i t="max" i="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i t="avg">
-      <x v="1"/>
-    </i>
-    <i t="avg" i="1">
-      <x v="1"/>
-    </i>
-    <i t="max">
-      <x v="1"/>
-    </i>
-    <i t="max" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i t="avg">
-      <x v="2"/>
-    </i>
-    <i t="avg" i="1">
-      <x v="2"/>
-    </i>
-    <i t="max">
-      <x v="2"/>
-    </i>
-    <i t="max" i="1">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Units Sold" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B2:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="sum"/>
-        <item t="countA"/>
-        <item t="avg"/>
-        <item t="max"/>
-        <item t="min"/>
-        <item t="product"/>
-        <item t="count"/>
-        <item t="stdDev"/>
-        <item t="stdDevP"/>
-        <item t="var"/>
-        <item t="varP"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="8" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="8" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="sum">
-      <x/>
-    </i>
-    <i t="countA">
-      <x/>
-    </i>
-    <i t="avg">
-      <x/>
-    </i>
-    <i t="max">
-      <x/>
-    </i>
-    <i t="min">
-      <x/>
-    </i>
-    <i t="product">
-      <x/>
-    </i>
-    <i t="count">
-      <x/>
-    </i>
-    <i t="stdDev">
-      <x/>
-    </i>
-    <i t="stdDevP">
-      <x/>
-    </i>
-    <i t="var">
-      <x/>
-    </i>
-    <i t="varP">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="sum">
-      <x v="1"/>
-    </i>
-    <i t="countA">
-      <x v="1"/>
-    </i>
-    <i t="avg">
-      <x v="1"/>
-    </i>
-    <i t="max">
-      <x v="1"/>
-    </i>
-    <i t="min">
-      <x v="1"/>
-    </i>
-    <i t="product">
-      <x v="1"/>
-    </i>
-    <i t="count">
-      <x v="1"/>
-    </i>
-    <i t="stdDev">
-      <x v="1"/>
-    </i>
-    <i t="stdDevP">
-      <x v="1"/>
-    </i>
-    <i t="var">
-      <x v="1"/>
-    </i>
-    <i t="varP">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
   </colItems>
   <dataFields count="2">
     <dataField name="Sum of Wholesale Price" fld="4" baseField="0" baseItem="0"/>
@@ -2152,23 +2334,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:U119"/>
+  <dimension ref="B2:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
@@ -4700,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>94</v>
       </c>
@@ -4715,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>95</v>
       </c>
@@ -4730,7 +4912,7 @@
         <v>439.33</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>96</v>
       </c>
@@ -4745,7 +4927,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>97</v>
       </c>
@@ -4760,7 +4942,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>55</v>
       </c>
@@ -4775,7 +4957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>81</v>
       </c>
@@ -4792,7 +4974,7 @@
         <v>4228.24</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>49</v>
       </c>
@@ -4806,6 +4988,652 @@
         <v>7</v>
       </c>
       <c r="F119" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C122" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>48</v>
+      </c>
+      <c r="J123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D126" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E126" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="F126" s="6">
+        <v>2</v>
+      </c>
+      <c r="G126" s="6">
+        <v>4</v>
+      </c>
+      <c r="H126" s="6">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <v>1663</v>
+      </c>
+      <c r="J126" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D127" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E127" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="F127" s="6">
+        <v>2</v>
+      </c>
+      <c r="G127" s="6">
+        <v>4</v>
+      </c>
+      <c r="H127" s="6">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6">
+        <v>1663</v>
+      </c>
+      <c r="J127" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="D128" s="6">
+        <v>2</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1</v>
+      </c>
+      <c r="F128" s="6">
+        <v>1</v>
+      </c>
+      <c r="G128" s="6">
+        <v>2</v>
+      </c>
+      <c r="H128" s="6">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6">
+        <v>4</v>
+      </c>
+      <c r="J128" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D129" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="E129" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="F129" s="6">
+        <v>2</v>
+      </c>
+      <c r="G129" s="6">
+        <v>2</v>
+      </c>
+      <c r="H129" s="6">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="J129" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6">
+        <v>99</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6">
+        <v>1</v>
+      </c>
+      <c r="I131" s="6">
+        <v>99</v>
+      </c>
+      <c r="J131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="D132" s="6">
+        <v>199</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6">
+        <v>1</v>
+      </c>
+      <c r="G132" s="6">
+        <v>6</v>
+      </c>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6">
+        <v>223.99</v>
+      </c>
+      <c r="J132" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="D133" s="6">
+        <v>199</v>
+      </c>
+      <c r="E133" s="6">
+        <v>99</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1</v>
+      </c>
+      <c r="G133" s="6">
+        <v>6</v>
+      </c>
+      <c r="H133" s="6">
+        <v>1</v>
+      </c>
+      <c r="I133" s="6">
+        <v>322.99</v>
+      </c>
+      <c r="J133" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1</v>
+      </c>
+      <c r="E134" s="6">
+        <v>1</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1</v>
+      </c>
+      <c r="G134" s="6">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1</v>
+      </c>
+      <c r="I134" s="6">
+        <v>3</v>
+      </c>
+      <c r="J134" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="D135" s="6">
+        <v>199</v>
+      </c>
+      <c r="E135" s="6">
+        <v>99</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1</v>
+      </c>
+      <c r="G135" s="6">
+        <v>6</v>
+      </c>
+      <c r="H135" s="6">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6">
+        <v>199</v>
+      </c>
+      <c r="J135" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D136" s="6">
+        <v>831.5</v>
+      </c>
+      <c r="E136" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="F136" s="6">
+        <v>2</v>
+      </c>
+      <c r="G136" s="6">
+        <v>4</v>
+      </c>
+      <c r="H136" s="6">
+        <v>1</v>
+      </c>
+      <c r="I136" s="6">
+        <v>1663</v>
+      </c>
+      <c r="J136" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
+      <c r="D137" s="6">
+        <v>2</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1</v>
+      </c>
+      <c r="G137" s="6">
+        <v>2</v>
+      </c>
+      <c r="H137" s="6">
+        <v>1</v>
+      </c>
+      <c r="I137" s="6">
+        <v>4</v>
+      </c>
+      <c r="J137" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D138" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="E138" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="F138" s="6">
+        <v>2</v>
+      </c>
+      <c r="G138" s="6">
+        <v>2</v>
+      </c>
+      <c r="H138" s="6">
+        <v>1</v>
+      </c>
+      <c r="I138" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="J138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="D139" s="6">
+        <v>172848.0625</v>
+      </c>
+      <c r="E139" s="6">
+        <v>415.75</v>
+      </c>
+      <c r="F139" s="6">
+        <v>2</v>
+      </c>
+      <c r="G139" s="6">
+        <v>4</v>
+      </c>
+      <c r="H139" s="6">
+        <v>1</v>
+      </c>
+      <c r="I139" s="6">
+        <v>29876452710.003906</v>
+      </c>
+      <c r="J139" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6">
+        <v>99</v>
+      </c>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6">
+        <v>1</v>
+      </c>
+      <c r="I140" s="6">
+        <v>99</v>
+      </c>
+      <c r="J140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6">
+        <v>1</v>
+      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6">
+        <v>1</v>
+      </c>
+      <c r="I141" s="6">
+        <v>1</v>
+      </c>
+      <c r="J141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6">
+        <v>99</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6">
+        <v>1</v>
+      </c>
+      <c r="I142" s="6">
+        <v>99</v>
+      </c>
+      <c r="J142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6">
+        <v>99</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6">
+        <v>1</v>
+      </c>
+      <c r="I143" s="6">
+        <v>99</v>
+      </c>
+      <c r="J143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="D144" s="6">
+        <v>199</v>
+      </c>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6">
+        <v>1</v>
+      </c>
+      <c r="G144" s="6">
+        <v>6</v>
+      </c>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6">
+        <v>223.99</v>
+      </c>
+      <c r="J144" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6">
+        <v>1</v>
+      </c>
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6">
+        <v>2</v>
+      </c>
+      <c r="J145" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="D146" s="6">
+        <v>199</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6">
+        <v>1</v>
+      </c>
+      <c r="G146" s="6">
+        <v>6</v>
+      </c>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="J146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="6">
+        <v>24.99</v>
+      </c>
+      <c r="D147" s="6">
+        <v>199</v>
+      </c>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
+        <v>1</v>
+      </c>
+      <c r="G147" s="6">
+        <v>6</v>
+      </c>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6">
+        <v>4973.0099999999993</v>
+      </c>
+      <c r="J147" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="6">
+        <v>440.74</v>
+      </c>
+      <c r="D148" s="6">
+        <v>1030.5</v>
+      </c>
+      <c r="E148" s="6">
+        <v>514.75</v>
+      </c>
+      <c r="F148" s="6">
+        <v>3</v>
+      </c>
+      <c r="G148" s="6">
+        <v>10</v>
+      </c>
+      <c r="H148" s="6">
+        <v>2</v>
+      </c>
+      <c r="I148" s="6">
+        <v>1985.99</v>
+      </c>
+      <c r="J148" s="6">
         <v>15</v>
       </c>
     </row>
